--- a/data/all.xlsx
+++ b/data/all.xlsx
@@ -3031,7 +3031,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3072,10 +3072,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3386,8 +3386,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="39.29071428571429" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -3406,7 +3406,7 @@
     <col min="19" max="19" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1">
         <v>40</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1">
         <v>36</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1">
         <v>35</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1">
         <v>29</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1">
         <v>24</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1">
         <v>24</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1">
         <v>24</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1">
         <v>23</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1">
         <v>23</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="1">
         <v>22</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1">
         <v>22</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21.75">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21.75">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21.75">
       <c r="A29" s="1">
         <v>21</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="21.75">
       <c r="A30" s="1">
         <v>21</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21.75">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="21.75">
       <c r="A32" s="1">
         <v>17</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75">
       <c r="A33" s="1">
         <v>17</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75">
       <c r="A34" s="1">
         <v>17</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21.75">
       <c r="A35" s="1">
         <v>17</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21.75">
       <c r="A36" s="1">
         <v>17</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21.75">
       <c r="A37" s="1">
         <v>17</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21.75">
       <c r="A38" s="1">
         <v>17</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
       <c r="A39" s="1">
         <v>17</v>
       </c>

--- a/data/all.xlsx
+++ b/data/all.xlsx
@@ -3386,7 +3386,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="30.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="39.29071428571429" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
